--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\AngVel\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890B44E4-DA37-431B-8076-0D975F47B01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AB83A2-509B-4FF8-BC13-769B34196D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{60450A92-48FE-4B71-AC8D-ACBAD9D8EAA5}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{5BBBA805-DD3E-44B4-B2CB-AAF70D324FA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50375A05-9E61-4F96-9DED-ADD4A40AF4FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EBB415-969D-449D-B03A-B4DCDDC3EB7A}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\AngVel\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AB83A2-509B-4FF8-BC13-769B34196D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1328ED6-39CE-468B-A2CA-059CD6D39423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{5BBBA805-DD3E-44B4-B2CB-AAF70D324FA6}"/>
+    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{51C79400-B320-4CBD-B35F-8A100EC57244}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,16 +401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EBB415-969D-449D-B03A-B4DCDDC3EB7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36DD43C-3C40-416A-987F-86119FEF8B9B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1.4281402012953257</v>
+        <v>2.8972137275354717</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\AngVel\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1328ED6-39CE-468B-A2CA-059CD6D39423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCDDE2B-F517-43DB-B96B-14325EA7FABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{51C79400-B320-4CBD-B35F-8A100EC57244}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{430975B2-D10A-426B-B28E-1C347AE98624}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,14 +401,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36DD43C-3C40-416A-987F-86119FEF8B9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C9E39C-4A9C-483F-80DD-5148AA14B050}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>2.8972137275354717</v>
       </c>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\AngVel\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCDDE2B-F517-43DB-B96B-14325EA7FABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13843B6A-8246-4CA5-8988-E369320B9F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{430975B2-D10A-426B-B28E-1C347AE98624}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{7C8CF568-07A3-4E88-A58C-5F9061ABE87F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C9E39C-4A9C-483F-80DD-5148AA14B050}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7559D88D-5A04-4103-9195-9D20C9F77534}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>2.8972137275354717</v>
+        <v>1.2998883093060829</v>
       </c>
     </row>
   </sheetData>
